--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_6_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_6_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Q0</t>
   </si>
@@ -37,66 +37,354 @@
     <t>Q6</t>
   </si>
   <si>
+    <t>1988-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2007-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2008-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2008-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2008-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2008-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2009-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2009-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2009-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2010-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2010-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2010-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2011-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2011-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2012-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2012-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2013-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2013-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2014-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2014-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2015-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2015-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2016-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2016-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2017-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2017-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2017-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2017-10-01 00:00:00_diff</t>
   </si>
   <si>
@@ -188,6 +476,9 @@
   </si>
   <si>
     <t>2025-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-07-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -545,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.05742807311811904</v>
+        <v>-0.101588999371764</v>
       </c>
       <c r="C2">
-        <v>0.1016982283081651</v>
+        <v>0.07289971874329804</v>
       </c>
       <c r="D2">
-        <v>1.043620551573365</v>
+        <v>0.6861041961609687</v>
       </c>
       <c r="E2">
-        <v>1.231121619908697</v>
+        <v>0.1980668107350405</v>
       </c>
       <c r="F2">
-        <v>2.236339930073662</v>
+        <v>-0.07571947167956594</v>
       </c>
       <c r="G2">
-        <v>5.370801698111855</v>
+        <v>-0.975120660753404</v>
       </c>
       <c r="H2">
-        <v>0.4369976207108885</v>
+        <v>0.613398233771836</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -605,25 +896,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.888188709466754</v>
+        <v>0.174488718115053</v>
       </c>
       <c r="C3">
-        <v>2.075689777802086</v>
+        <v>0.7876931955327237</v>
       </c>
       <c r="D3">
-        <v>3.080908087967051</v>
+        <v>0.2996558101067954</v>
       </c>
       <c r="E3">
-        <v>6.215369856005244</v>
+        <v>0.02586952769218898</v>
       </c>
       <c r="F3">
-        <v>1.281565778604278</v>
+        <v>-0.8735316613816491</v>
       </c>
       <c r="G3">
-        <v>0.9075084148691125</v>
+        <v>0.7149872331435909</v>
       </c>
       <c r="H3">
-        <v>0.7600669930119678</v>
+        <v>-0.9121213123694722</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -631,25 +922,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.02845113955915</v>
+        <v>0.6132044774176658</v>
       </c>
       <c r="C4">
-        <v>4.162912907597343</v>
+        <v>0.1251670919917376</v>
       </c>
       <c r="D4">
-        <v>-0.770891169803623</v>
+        <v>-0.1486191904228689</v>
       </c>
       <c r="E4">
-        <v>-1.144948533538788</v>
+        <v>-1.048020379496707</v>
       </c>
       <c r="F4">
-        <v>-1.292389955395933</v>
+        <v>0.5404985150285331</v>
       </c>
       <c r="G4">
-        <v>-1.251894975548039</v>
+        <v>-1.08661003048453</v>
       </c>
       <c r="H4">
-        <v>-2.691098069807345</v>
+        <v>-0.7474086197490388</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -657,25 +948,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-4.047240884204956</v>
+        <v>-0.48803738542592</v>
       </c>
       <c r="C5">
-        <v>-4.421298247940121</v>
+        <v>-0.7618236678405265</v>
       </c>
       <c r="D5">
-        <v>-4.568739669797266</v>
+        <v>-1.661224856914365</v>
       </c>
       <c r="E5">
-        <v>-4.528244689949371</v>
+        <v>-0.07270596238912458</v>
       </c>
       <c r="F5">
-        <v>-5.967447784208678</v>
+        <v>-1.699814507902188</v>
       </c>
       <c r="G5">
-        <v>-4.765753034304844</v>
+        <v>-1.360613097166696</v>
       </c>
       <c r="H5">
-        <v>-4.456463277913725</v>
+        <v>-2.345983893123907</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03993857462826644</v>
+        <v>-0.2737862824146035</v>
       </c>
       <c r="C6">
-        <v>0.0005564052196278535</v>
+        <v>-1.173187471488442</v>
       </c>
       <c r="D6">
-        <v>-1.438646689039678</v>
+        <v>0.4153314230367984</v>
       </c>
       <c r="E6">
-        <v>-0.2369519391358443</v>
+        <v>-1.211777122476265</v>
       </c>
       <c r="F6">
-        <v>0.07233781725527411</v>
+        <v>-0.8725757117407734</v>
       </c>
       <c r="G6">
-        <v>-1.082715028637424</v>
+        <v>-1.857946507697984</v>
       </c>
       <c r="H6">
-        <v>0.4569188152521659</v>
+        <v>1.380632103399325</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -709,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-2.005334216675192</v>
+        <v>-0.899401189073828</v>
       </c>
       <c r="C7">
-        <v>-0.803639466771358</v>
+        <v>0.6891177054514119</v>
       </c>
       <c r="D7">
-        <v>-0.4943497103802396</v>
+        <v>-0.9379908400616512</v>
       </c>
       <c r="E7">
-        <v>-1.649402556272938</v>
+        <v>-0.59878942932616</v>
       </c>
       <c r="F7">
-        <v>-0.1097687123833477</v>
+        <v>-1.58416022528337</v>
       </c>
       <c r="G7">
-        <v>-0.3794228323569815</v>
+        <v>1.654418385813938</v>
       </c>
       <c r="H7">
-        <v>0.1721088715421318</v>
+        <v>1.330355008174015</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -735,25 +1026,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04231489763667018</v>
+        <v>1.588518894525215</v>
       </c>
       <c r="C8">
-        <v>-1.112737948256028</v>
+        <v>-0.03858965098784806</v>
       </c>
       <c r="D8">
-        <v>0.426895895633562</v>
+        <v>0.3006117597476432</v>
       </c>
       <c r="E8">
-        <v>0.1572417756599283</v>
+        <v>-0.684759036209567</v>
       </c>
       <c r="F8">
-        <v>0.7087734795590415</v>
+        <v>2.553819574887741</v>
       </c>
       <c r="G8">
-        <v>0.482846718646189</v>
+        <v>2.229756197247818</v>
       </c>
       <c r="H8">
-        <v>0.5906624340427387</v>
+        <v>0.6381867036027311</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -761,25 +1052,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.228061995268202</v>
+        <v>-1.627108545513039</v>
       </c>
       <c r="C9">
-        <v>0.9584078752945684</v>
+        <v>-1.287907134777547</v>
       </c>
       <c r="D9">
-        <v>1.509939579193682</v>
+        <v>-2.273277930734757</v>
       </c>
       <c r="E9">
-        <v>1.284012818280829</v>
+        <v>0.9653006803625506</v>
       </c>
       <c r="F9">
-        <v>1.391828533677379</v>
+        <v>0.6412373027226275</v>
       </c>
       <c r="G9">
-        <v>1.295428913013077</v>
+        <v>-0.9503321909224596</v>
       </c>
       <c r="H9">
-        <v>1.798839798466086</v>
+        <v>-0.8879834526773724</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -787,25 +1078,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5137754236260815</v>
+        <v>0.3392014107354722</v>
       </c>
       <c r="C10">
-        <v>0.2878486627132291</v>
+        <v>-0.6461693852217381</v>
       </c>
       <c r="D10">
-        <v>0.3956643781097787</v>
+        <v>2.59240922587557</v>
       </c>
       <c r="E10">
-        <v>0.299264757445477</v>
+        <v>2.268345848235647</v>
       </c>
       <c r="F10">
-        <v>0.8026756428984855</v>
+        <v>0.6767763545905601</v>
       </c>
       <c r="G10">
-        <v>1.061197584821935</v>
+        <v>0.7391250928356472</v>
       </c>
       <c r="H10">
-        <v>-0.6627850001563792</v>
+        <v>2.734227559235397</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -813,25 +1104,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4028038717171413</v>
+        <v>-0.9853707959572191</v>
       </c>
       <c r="C11">
-        <v>0.3064042510528396</v>
+        <v>2.253207815140089</v>
       </c>
       <c r="D11">
-        <v>0.8098151365058481</v>
+        <v>1.929144437500166</v>
       </c>
       <c r="E11">
-        <v>1.068337078429297</v>
+        <v>0.337574943855079</v>
       </c>
       <c r="F11">
-        <v>-0.6556455065490165</v>
+        <v>0.3999236821001662</v>
       </c>
       <c r="G11">
-        <v>-0.002006290186315263</v>
+        <v>2.395026148499916</v>
       </c>
       <c r="H11">
-        <v>0.3615376447221159</v>
+        <v>2.009489144694641</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -839,25 +1130,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5336388157440486</v>
+        <v>3.238578611097331</v>
       </c>
       <c r="C12">
-        <v>0.7921607576674977</v>
+        <v>2.914515233457408</v>
       </c>
       <c r="D12">
-        <v>-0.9318218273108161</v>
+        <v>1.322945739812321</v>
       </c>
       <c r="E12">
-        <v>-0.2781826109481148</v>
+        <v>1.385294478057408</v>
       </c>
       <c r="F12">
-        <v>0.0853613239603164</v>
+        <v>3.380396944457158</v>
       </c>
       <c r="G12">
-        <v>-0.8154145209193131</v>
+        <v>2.994859940651883</v>
       </c>
       <c r="H12">
-        <v>0.2549610360343397</v>
+        <v>3.037243806745315</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -865,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-1.102517691576566</v>
+        <v>1.269711933356246</v>
       </c>
       <c r="C13">
-        <v>-0.4488784752138651</v>
+        <v>-0.3218575602888409</v>
       </c>
       <c r="D13">
-        <v>-0.08533454030543387</v>
+        <v>-0.2595088220437538</v>
       </c>
       <c r="E13">
-        <v>-0.9861103851850633</v>
+        <v>1.735593644355996</v>
       </c>
       <c r="F13">
-        <v>0.08426517176858947</v>
+        <v>1.350056640550721</v>
       </c>
       <c r="G13">
-        <v>-0.4927947422478724</v>
+        <v>1.392440506644153</v>
       </c>
       <c r="H13">
-        <v>-0.6984007263408886</v>
+        <v>1.910485588051676</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -891,25 +1182,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1737007515684039</v>
+        <v>-2.034944937140727</v>
       </c>
       <c r="C14">
-        <v>-0.7270750933112256</v>
+        <v>-1.97259619889564</v>
       </c>
       <c r="D14">
-        <v>0.3433004636424272</v>
+        <v>0.02250626750411011</v>
       </c>
       <c r="E14">
-        <v>-0.2337594503740346</v>
+        <v>-0.3630307363011647</v>
       </c>
       <c r="F14">
-        <v>-0.4393654344670508</v>
+        <v>-0.3206468702077324</v>
       </c>
       <c r="G14">
-        <v>0.5397795472540464</v>
+        <v>0.1973982111997897</v>
       </c>
       <c r="H14">
-        <v>-0.1965667960833156</v>
+        <v>-0.6135626820544674</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -917,25 +1208,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8389029408811082</v>
+        <v>-0.5035607458985734</v>
       </c>
       <c r="C15">
-        <v>0.2618430268646463</v>
+        <v>1.491541720501176</v>
       </c>
       <c r="D15">
-        <v>0.05623704277163011</v>
+        <v>1.106004716695902</v>
       </c>
       <c r="E15">
-        <v>1.035382024492727</v>
+        <v>1.148388582789334</v>
       </c>
       <c r="F15">
-        <v>0.2990356811553654</v>
+        <v>1.666433664196856</v>
       </c>
       <c r="G15">
-        <v>0.281065866501172</v>
+        <v>0.8554727709425989</v>
       </c>
       <c r="H15">
-        <v>0.3044707320415089</v>
+        <v>0.277765865552502</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -943,25 +1234,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.6954484448595206</v>
+        <v>1.970697303999736</v>
       </c>
       <c r="C16">
-        <v>0.2836965368615766</v>
+        <v>1.585160300194461</v>
       </c>
       <c r="D16">
-        <v>-0.4526498064757853</v>
+        <v>1.627544166287893</v>
       </c>
       <c r="E16">
-        <v>-0.4706196211299787</v>
+        <v>2.145589247695415</v>
       </c>
       <c r="F16">
-        <v>-0.4472147555896419</v>
+        <v>1.334628354441158</v>
       </c>
       <c r="G16">
-        <v>-0.8123891913563827</v>
+        <v>0.7569214490510615</v>
       </c>
       <c r="H16">
-        <v>-0.1565696741854305</v>
+        <v>1.432766185397506</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -969,25 +1260,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.2465870357053012</v>
+        <v>0.1952815901263806</v>
       </c>
       <c r="C17">
-        <v>-0.2645568503594945</v>
+        <v>0.2376654562198128</v>
       </c>
       <c r="D17">
-        <v>-0.2411519848191577</v>
+        <v>0.755710537627335</v>
       </c>
       <c r="E17">
-        <v>-0.6063264205858985</v>
+        <v>-0.05525035562692223</v>
       </c>
       <c r="F17">
-        <v>0.04949309658505369</v>
+        <v>-0.632957261017019</v>
       </c>
       <c r="G17">
-        <v>-0.08137778435637</v>
+        <v>0.04288747532942579</v>
       </c>
       <c r="H17">
-        <v>-0.1908955832804919</v>
+        <v>-1.457111925721047</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -995,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.1975260465718366</v>
+        <v>0.1278488938086894</v>
       </c>
       <c r="C18">
-        <v>-0.5627004823385774</v>
+        <v>0.6458939752162116</v>
       </c>
       <c r="D18">
-        <v>0.09311903483237477</v>
+        <v>-0.1650669180380456</v>
       </c>
       <c r="E18">
-        <v>-0.03775184610904891</v>
+        <v>-0.7427738234281425</v>
       </c>
       <c r="F18">
-        <v>-0.1472696450331708</v>
+        <v>-0.06692908708169761</v>
       </c>
       <c r="G18">
-        <v>-0.9770474321007241</v>
+        <v>-1.566928488132171</v>
       </c>
       <c r="H18">
-        <v>-0.3965216429320764</v>
+        <v>-0.7039189006741999</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1021,25 +1312,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4425040297996861</v>
+        <v>0.6594114021319888</v>
       </c>
       <c r="C19">
-        <v>0.3116331488582624</v>
+        <v>-0.1515494911222684</v>
       </c>
       <c r="D19">
-        <v>0.2021153499341405</v>
+        <v>-0.7292563965123652</v>
       </c>
       <c r="E19">
-        <v>-0.6276624371334127</v>
+        <v>-0.0534116601659204</v>
       </c>
       <c r="F19">
-        <v>-0.04713664796476502</v>
+        <v>-1.553411061216394</v>
       </c>
       <c r="G19">
-        <v>-0.130522749394545</v>
+        <v>-0.6904014737584228</v>
       </c>
       <c r="H19">
-        <v>-0.3484326269343037</v>
+        <v>-0.7286035940274301</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1047,25 +1338,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.2720610750631522</v>
+        <v>-1.80349368526494</v>
       </c>
       <c r="C20">
-        <v>-1.101838862130705</v>
+        <v>-2.381200590655037</v>
       </c>
       <c r="D20">
-        <v>-0.5213130729620578</v>
+        <v>-1.705355854308592</v>
       </c>
       <c r="E20">
-        <v>-0.6046991743918377</v>
+        <v>-3.205355255359065</v>
       </c>
       <c r="F20">
-        <v>-0.8226090519315964</v>
+        <v>-2.342345667901094</v>
       </c>
       <c r="G20">
-        <v>0.741168751704574</v>
+        <v>-2.380547788170102</v>
       </c>
       <c r="H20">
-        <v>-0.5948149543774897</v>
+        <v>-2.896412308926933</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1073,25 +1364,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.1065518669046048</v>
+        <v>0.03889441130065097</v>
       </c>
       <c r="C21">
-        <v>-0.1899379683343848</v>
+        <v>0.7147391476470958</v>
       </c>
       <c r="D21">
-        <v>-0.4078478458741435</v>
+        <v>-0.7852602534033775</v>
       </c>
       <c r="E21">
-        <v>1.155929957762027</v>
+        <v>0.07774933405459339</v>
       </c>
       <c r="F21">
-        <v>-0.1800537483200367</v>
+        <v>0.03954721378558601</v>
       </c>
       <c r="G21">
-        <v>1.260560668210092</v>
+        <v>-0.4763173069712456</v>
       </c>
       <c r="H21">
-        <v>0.1601165539492688</v>
+        <v>1.022691600392779</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1099,25 +1390,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.1895682054566924</v>
+        <v>0.8082793677945321</v>
       </c>
       <c r="C22">
-        <v>1.374209598179478</v>
+        <v>-0.6917200332559411</v>
       </c>
       <c r="D22">
-        <v>0.03822589209741434</v>
+        <v>0.1712895542020297</v>
       </c>
       <c r="E22">
-        <v>1.478840308627543</v>
+        <v>0.1330874339330224</v>
       </c>
       <c r="F22">
-        <v>0.3783961943667199</v>
+        <v>-0.3827770868238093</v>
       </c>
       <c r="G22">
-        <v>0.16812179619705</v>
+        <v>1.116231820540215</v>
       </c>
       <c r="H22">
-        <v>0.7666659995807804</v>
+        <v>-0.07641739410488613</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1125,25 +1416,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>1.157000698704573</v>
+        <v>-1.609538087339299</v>
       </c>
       <c r="C23">
-        <v>-0.1789830073774904</v>
+        <v>-0.7465284998813276</v>
       </c>
       <c r="D23">
-        <v>1.261631409152638</v>
+        <v>-0.784730620150335</v>
       </c>
       <c r="E23">
-        <v>0.1611872948918152</v>
+        <v>-1.300595140907167</v>
       </c>
       <c r="F23">
-        <v>-0.0490871032778547</v>
+        <v>0.1984137664568576</v>
       </c>
       <c r="G23">
-        <v>0.5494571001058757</v>
+        <v>-0.9942354481882435</v>
       </c>
       <c r="H23">
-        <v>0.2237884593306613</v>
+        <v>-0.3955226814588289</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1151,25 +1442,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.4886691766355519</v>
+        <v>0.6246670976538449</v>
       </c>
       <c r="C24">
-        <v>0.9519452398945764</v>
+        <v>0.5864649773848375</v>
       </c>
       <c r="D24">
-        <v>-0.1484988743662463</v>
+        <v>0.07060045662800585</v>
       </c>
       <c r="E24">
-        <v>-0.3587732725359162</v>
+        <v>1.56960936399203</v>
       </c>
       <c r="F24">
-        <v>0.2397709308478142</v>
+        <v>0.376960149346929</v>
       </c>
       <c r="G24">
-        <v>-0.0858977099274002</v>
+        <v>0.9756729160763437</v>
       </c>
       <c r="H24">
-        <v>0.6312820914482035</v>
+        <v>1.137305198645217</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1177,25 +1468,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1.10624937372658</v>
+        <v>0.6412237094438916</v>
       </c>
       <c r="C25">
-        <v>0.005805259465757717</v>
+        <v>0.12535918868706</v>
       </c>
       <c r="D25">
-        <v>-0.2044691387039121</v>
+        <v>1.624368096051084</v>
       </c>
       <c r="E25">
-        <v>0.3940750646798182</v>
+        <v>0.4317188814059831</v>
       </c>
       <c r="F25">
-        <v>0.06840642390460383</v>
+        <v>1.030431648135398</v>
       </c>
       <c r="G25">
-        <v>0.7855862252802075</v>
+        <v>1.192063930704271</v>
       </c>
       <c r="H25">
-        <v>2.481458500917908</v>
+        <v>1.944161824739192</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1203,25 +1494,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.6446211617534254</v>
+        <v>-0.4848008712739751</v>
       </c>
       <c r="C26">
-        <v>-0.8548955599230954</v>
+        <v>1.014208036090049</v>
       </c>
       <c r="D26">
-        <v>-0.256351356539365</v>
+        <v>-0.1784411785550519</v>
       </c>
       <c r="E26">
-        <v>-0.5820199973145794</v>
+        <v>0.4202715881743627</v>
       </c>
       <c r="F26">
-        <v>0.1351598040610243</v>
+        <v>0.5819038707432359</v>
       </c>
       <c r="G26">
-        <v>1.831032079698725</v>
+        <v>1.334001764778157</v>
       </c>
       <c r="H26">
-        <v>8.675278874623302</v>
+        <v>-0.743946976870008</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1229,25 +1520,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.6387305113048862</v>
+        <v>1.010360520409669</v>
       </c>
       <c r="C27">
-        <v>-0.04018630792115581</v>
+        <v>-0.1822886942354323</v>
       </c>
       <c r="D27">
-        <v>-0.3658549486963703</v>
+        <v>0.4164240724939824</v>
       </c>
       <c r="E27">
-        <v>0.3513248526792334</v>
+        <v>0.5780563550628556</v>
       </c>
       <c r="F27">
-        <v>2.047197128316934</v>
+        <v>1.330154249097776</v>
       </c>
       <c r="G27">
-        <v>8.891443923241512</v>
+        <v>-0.7477944925503883</v>
       </c>
       <c r="H27">
-        <v>-8.659210159859798</v>
+        <v>0.2313864354915418</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1255,25 +1546,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3668428211138005</v>
+        <v>-0.5868905223483661</v>
       </c>
       <c r="C28">
-        <v>0.04117418033858611</v>
+        <v>0.01182224438104851</v>
       </c>
       <c r="D28">
-        <v>0.7583539817141898</v>
+        <v>0.1734545269499217</v>
       </c>
       <c r="E28">
-        <v>2.454226257351891</v>
+        <v>0.9255524209848424</v>
       </c>
       <c r="F28">
-        <v>9.298473052276469</v>
+        <v>-1.152396320663322</v>
       </c>
       <c r="G28">
-        <v>-8.252181030824842</v>
+        <v>-0.1732153926213921</v>
       </c>
       <c r="H28">
-        <v>-0.5427844311686951</v>
+        <v>-0.7034264372601845</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1281,25 +1572,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.4578680368388337</v>
+        <v>0.8645858527425047</v>
       </c>
       <c r="C29">
-        <v>0.25931176453677</v>
+        <v>1.026218135311378</v>
       </c>
       <c r="D29">
-        <v>1.955184040174471</v>
+        <v>1.778316029346299</v>
       </c>
       <c r="E29">
-        <v>8.799430835099049</v>
+        <v>-0.2996327123018661</v>
       </c>
       <c r="F29">
-        <v>-8.751223248002262</v>
+        <v>0.6795482157400641</v>
       </c>
       <c r="G29">
-        <v>-1.041826648346115</v>
+        <v>0.1493371711012716</v>
       </c>
       <c r="H29">
-        <v>0.5410860125407967</v>
+        <v>1.580223093541858</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1307,25 +1598,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4181606776922825</v>
+        <v>-0.05349720001011379</v>
       </c>
       <c r="C30">
-        <v>2.114032953329983</v>
+        <v>0.6986006940248068</v>
       </c>
       <c r="D30">
-        <v>8.958279748254562</v>
+        <v>-1.379348047623358</v>
       </c>
       <c r="E30">
-        <v>-8.592374334846749</v>
+        <v>-0.4001671195814276</v>
       </c>
       <c r="F30">
-        <v>-0.8829777351906024</v>
+        <v>-0.93037816422022</v>
       </c>
       <c r="G30">
-        <v>0.6999349256963092</v>
+        <v>0.5005077582203663</v>
       </c>
       <c r="H30">
-        <v>-2.266352066652947</v>
+        <v>-1.125331743093641</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1333,25 +1624,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>2.057869132359739</v>
+        <v>0.3035207902269513</v>
       </c>
       <c r="C31">
-        <v>8.902115927284317</v>
+        <v>-1.774427951421213</v>
       </c>
       <c r="D31">
-        <v>-8.648538155816993</v>
+        <v>-0.7952470233792832</v>
       </c>
       <c r="E31">
-        <v>-0.9391415561608464</v>
+        <v>-1.325458068018076</v>
       </c>
       <c r="F31">
-        <v>0.6437711047260652</v>
+        <v>0.1054278544225107</v>
       </c>
       <c r="G31">
-        <v>-2.322515887623191</v>
+        <v>-1.520411646891496</v>
       </c>
       <c r="H31">
-        <v>-0.05848473295872768</v>
+        <v>-0.8010951832043246</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1359,25 +1650,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>6.652313087672924</v>
+        <v>-1.73603828535007</v>
       </c>
       <c r="C32">
-        <v>-10.89834099542839</v>
+        <v>-0.7568573573081404</v>
       </c>
       <c r="D32">
-        <v>-3.188944395772239</v>
+        <v>-1.287068401946933</v>
       </c>
       <c r="E32">
-        <v>-1.606031734885327</v>
+        <v>0.1438175204936535</v>
       </c>
       <c r="F32">
-        <v>-4.572318727234583</v>
+        <v>-1.482021980820353</v>
       </c>
       <c r="G32">
-        <v>-2.30828757257012</v>
+        <v>-0.7627055171331818</v>
       </c>
       <c r="H32">
-        <v>-2.759441727496859</v>
+        <v>-1.113327046776493</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1385,25 +1676,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>-18.36749132628568</v>
+        <v>1.097647294222786</v>
       </c>
       <c r="C33">
-        <v>-10.65809472662953</v>
+        <v>0.5674362495839937</v>
       </c>
       <c r="D33">
-        <v>-9.07518206574262</v>
+        <v>1.99832217202458</v>
       </c>
       <c r="E33">
-        <v>-12.04146905809188</v>
+        <v>0.3724826707105731</v>
       </c>
       <c r="F33">
-        <v>-9.777437903427414</v>
+        <v>1.091799134397745</v>
       </c>
       <c r="G33">
-        <v>-10.22859205835415</v>
+        <v>0.7411776047544338</v>
       </c>
       <c r="H33">
-        <v>-10.36895612186813</v>
+        <v>0.5265707195157531</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1411,25 +1702,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>7.513167073507937</v>
+        <v>-0.1075764278481414</v>
       </c>
       <c r="C34">
-        <v>9.096079734394849</v>
+        <v>1.323309494592445</v>
       </c>
       <c r="D34">
-        <v>6.129792742045593</v>
+        <v>-0.3025300067215621</v>
       </c>
       <c r="E34">
-        <v>8.393823896710055</v>
+        <v>0.4167864569656096</v>
       </c>
       <c r="F34">
-        <v>7.942669741783317</v>
+        <v>0.06616492732229873</v>
       </c>
       <c r="G34">
-        <v>7.802305678269343</v>
+        <v>-0.148441957916382</v>
       </c>
       <c r="H34">
-        <v>8.32854468913156</v>
+        <v>1.271267699541377</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1437,25 +1728,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.9564081874156993</v>
+        <v>0.5914591278041679</v>
       </c>
       <c r="C35">
-        <v>-2.009878804933557</v>
+        <v>-1.034380373509839</v>
       </c>
       <c r="D35">
-        <v>0.2541523497309064</v>
+        <v>-0.3150639098226675</v>
       </c>
       <c r="E35">
-        <v>-0.1970018051958322</v>
+        <v>-0.6656854394659784</v>
       </c>
       <c r="F35">
-        <v>-0.3373658687098063</v>
+        <v>-0.8802923247046591</v>
       </c>
       <c r="G35">
-        <v>0.1888731421524112</v>
+        <v>0.5394173327530996</v>
       </c>
       <c r="H35">
-        <v>0.0470441954131372</v>
+        <v>-0.4118040475531172</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1463,25 +1754,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>-4.157449276732949</v>
+        <v>-0.6718404308765794</v>
       </c>
       <c r="C36">
-        <v>-1.893418122068486</v>
+        <v>0.04747603281059226</v>
       </c>
       <c r="D36">
-        <v>-2.344572276995224</v>
+        <v>-0.3031454968327186</v>
       </c>
       <c r="E36">
-        <v>-2.484936340509199</v>
+        <v>-0.5177523820713994</v>
       </c>
       <c r="F36">
-        <v>-1.958697329646981</v>
+        <v>0.9019572753863593</v>
       </c>
       <c r="G36">
-        <v>-2.100526276386255</v>
+        <v>-0.0492641049198575</v>
       </c>
       <c r="H36">
-        <v>-1.457551654984191</v>
+        <v>0.4659414659414611</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1489,25 +1780,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>1.546611864454844</v>
+        <v>0.6176691797623857</v>
       </c>
       <c r="C37">
-        <v>1.095457709528105</v>
+        <v>0.2670476501190748</v>
       </c>
       <c r="D37">
-        <v>0.9550936460141312</v>
+        <v>0.05244076488039406</v>
       </c>
       <c r="E37">
-        <v>1.481332656876349</v>
+        <v>1.472150422338153</v>
       </c>
       <c r="F37">
-        <v>1.339503710137075</v>
+        <v>0.5209290420319359</v>
       </c>
       <c r="G37">
-        <v>1.982478331539139</v>
+        <v>1.036134612893254</v>
       </c>
       <c r="H37">
-        <v>2.106891037868721</v>
+        <v>-0.1436485004625541</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1515,25 +1806,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>1.156631887942306</v>
+        <v>0.03880592231798174</v>
       </c>
       <c r="C38">
-        <v>1.016267824428332</v>
+        <v>-0.175800962920699</v>
       </c>
       <c r="D38">
-        <v>1.54250683529055</v>
+        <v>1.24390869453706</v>
       </c>
       <c r="E38">
-        <v>1.400677888551276</v>
+        <v>0.2926873142308429</v>
       </c>
       <c r="F38">
-        <v>2.04365250995334</v>
+        <v>0.8078928850921615</v>
       </c>
       <c r="G38">
-        <v>2.168065216282922</v>
+        <v>-0.3718902282636471</v>
       </c>
       <c r="H38">
-        <v>1.770435010245305</v>
+        <v>0.9090267073213163</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1541,25 +1832,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>-1.025188112727922</v>
+        <v>-0.677869429605675</v>
       </c>
       <c r="C39">
-        <v>-0.4989491018657047</v>
+        <v>0.7418402278520837</v>
       </c>
       <c r="D39">
-        <v>-0.6407780486049788</v>
+        <v>-0.2093811524541331</v>
       </c>
       <c r="E39">
-        <v>0.002196572797085183</v>
+        <v>0.3058244184071855</v>
       </c>
       <c r="F39">
-        <v>0.1266092791266676</v>
+        <v>-0.8739586949486231</v>
       </c>
       <c r="G39">
-        <v>-0.2710209269109496</v>
+        <v>0.4069582406363403</v>
       </c>
       <c r="H39">
-        <v>-0.3471896406117954</v>
+        <v>-1.090722928635204</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1567,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08364543516793629</v>
+        <v>1.413916865558241</v>
       </c>
       <c r="C40">
-        <v>-0.05818351157133772</v>
+        <v>0.4626954852520248</v>
       </c>
       <c r="D40">
-        <v>0.5847911098307261</v>
+        <v>0.9779010561133434</v>
       </c>
       <c r="E40">
-        <v>0.7092038161603086</v>
+        <v>-0.2018820572424652</v>
       </c>
       <c r="F40">
-        <v>0.3115736101226914</v>
+        <v>1.079034878342498</v>
       </c>
       <c r="G40">
-        <v>0.2354048964218456</v>
+        <v>-0.4186462909290461</v>
       </c>
       <c r="H40">
-        <v>0.5117269545447671</v>
+        <v>0.4764273232346627</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1593,25 +1884,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.1538585523806955</v>
+        <v>-0.3887453895807202</v>
       </c>
       <c r="C41">
-        <v>0.4891160690213684</v>
+        <v>0.1264601812805983</v>
       </c>
       <c r="D41">
-        <v>0.6135287753509509</v>
+        <v>-1.05332293207521</v>
       </c>
       <c r="E41">
-        <v>0.2158985693133336</v>
+        <v>0.2275940035097531</v>
       </c>
       <c r="F41">
-        <v>0.1397298556124878</v>
+        <v>-1.270087165761791</v>
       </c>
       <c r="G41">
-        <v>0.4160519137354094</v>
+        <v>-0.3750135515980824</v>
       </c>
       <c r="H41">
-        <v>0.2448320914236854</v>
+        <v>-1.444544752635608</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1619,25 +1910,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.7495351060200912</v>
+        <v>0.8948776091633243</v>
       </c>
       <c r="C42">
-        <v>0.8739478123496736</v>
+        <v>-0.2849055041924844</v>
       </c>
       <c r="D42">
-        <v>0.4763176063120564</v>
+        <v>0.9960114313924791</v>
       </c>
       <c r="E42">
-        <v>0.4001488926112106</v>
+        <v>-0.5016697378790653</v>
       </c>
       <c r="F42">
-        <v>0.6764709507341322</v>
+        <v>0.3934038762846435</v>
       </c>
       <c r="G42">
-        <v>0.5052511284224082</v>
+        <v>-0.6761273247528823</v>
       </c>
       <c r="H42">
-        <v>0.6583985339311494</v>
+        <v>0.07149480639909378</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1645,25 +1936,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03849281619118239</v>
+        <v>-1.529048361146427</v>
       </c>
       <c r="C43">
-        <v>-0.3591373898464348</v>
+        <v>-0.248131425561464</v>
       </c>
       <c r="D43">
-        <v>-0.4353061035472806</v>
+        <v>-1.745812594833008</v>
       </c>
       <c r="E43">
-        <v>-0.158984045424359</v>
+        <v>-0.8507389806692995</v>
       </c>
       <c r="F43">
-        <v>-0.330203867736083</v>
+        <v>-1.920270181706825</v>
       </c>
       <c r="G43">
-        <v>-0.1770564622273418</v>
+        <v>-1.172648050554849</v>
       </c>
       <c r="H43">
-        <v>-0.4544852366504605</v>
+        <v>-0.4479611863745375</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1671,25 +1962,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.2590580299438133</v>
+        <v>0.565027764263381</v>
       </c>
       <c r="C44">
-        <v>-0.3352267436446591</v>
+        <v>-0.9326534050081634</v>
       </c>
       <c r="D44">
-        <v>-0.0589046855217375</v>
+        <v>-0.03757979084445456</v>
       </c>
       <c r="E44">
-        <v>-0.2301245078334615</v>
+        <v>-1.10711099188198</v>
       </c>
       <c r="F44">
-        <v>-0.07697710232472027</v>
+        <v>-0.3594888607300043</v>
       </c>
       <c r="G44">
-        <v>-0.354405876747839</v>
+        <v>0.3651980034503075</v>
       </c>
       <c r="H44">
-        <v>-0.5173935701067854</v>
+        <v>0.8640954763153303</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1697,25 +1988,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01855976243503714</v>
+        <v>-1.328524460837688</v>
       </c>
       <c r="C45">
-        <v>0.2948818205579588</v>
+        <v>-0.4334508466739788</v>
       </c>
       <c r="D45">
-        <v>0.1236619982462347</v>
+        <v>-1.502982047711505</v>
       </c>
       <c r="E45">
-        <v>0.276809403754976</v>
+        <v>-0.7553599165595285</v>
       </c>
       <c r="F45">
-        <v>-0.0006193706681427817</v>
+        <v>-0.03067305237921679</v>
       </c>
       <c r="G45">
-        <v>-0.1636070640270892</v>
+        <v>0.4682244204858061</v>
       </c>
       <c r="H45">
-        <v>-0.287689639421607</v>
+        <v>-2.083717846181181</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1723,25 +2014,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1467044301255134</v>
+        <v>0.2425277406812079</v>
       </c>
       <c r="C46">
-        <v>-0.0245153921862106</v>
+        <v>-0.8270034603563179</v>
       </c>
       <c r="D46">
-        <v>0.1286320133225306</v>
+        <v>-0.07938132920434182</v>
       </c>
       <c r="E46">
-        <v>-0.1487967611005881</v>
+        <v>0.64530553497597</v>
       </c>
       <c r="F46">
-        <v>-0.3117844544595345</v>
+        <v>1.144203007840993</v>
       </c>
       <c r="G46">
-        <v>-0.4358670298540523</v>
+        <v>-1.407739258825994</v>
       </c>
       <c r="H46">
-        <v>0.1470735274266985</v>
+        <v>0.9696167293258958</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1749,22 +2040,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.1819613811903656</v>
+        <v>-0.8542644318353889</v>
       </c>
       <c r="C47">
-        <v>-0.02881397568162436</v>
+        <v>-0.1066423006834128</v>
       </c>
       <c r="D47">
-        <v>-0.3062427501047431</v>
+        <v>0.618044563496899</v>
       </c>
       <c r="E47">
-        <v>-0.4692304434636895</v>
+        <v>1.116942036361922</v>
       </c>
       <c r="F47">
-        <v>-0.5933130188582073</v>
+        <v>-1.435000230305065</v>
       </c>
       <c r="G47">
-        <v>-0.01037246157745647</v>
+        <v>0.9423557578468248</v>
+      </c>
+      <c r="H47">
+        <v>0.6910994764397971</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1772,69 +2066,2567 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4718454808444464</v>
+        <v>-0.1381221508383059</v>
       </c>
       <c r="C48">
-        <v>0.1944167064213277</v>
+        <v>0.5865647133420058</v>
       </c>
       <c r="D48">
-        <v>0.0314290130623813</v>
+        <v>1.085462186207029</v>
       </c>
       <c r="E48">
-        <v>-0.09265356233213651</v>
+        <v>-1.466480080459958</v>
       </c>
       <c r="F48">
-        <v>0.4902869949486143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.9108759076919317</v>
+      </c>
+      <c r="G48">
+        <v>0.659619626284904</v>
+      </c>
+      <c r="H48">
+        <v>0.9714824066615444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.08594117411414147</v>
+        <v>1.075230919357795</v>
       </c>
       <c r="C49">
-        <v>-0.2489288674730878</v>
+        <v>1.574128392222818</v>
       </c>
       <c r="D49">
-        <v>-0.3730114428676057</v>
+        <v>-0.9778138744441691</v>
       </c>
       <c r="E49">
-        <v>0.2099291144131452</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>1.399542113707721</v>
+      </c>
+      <c r="F49">
+        <v>1.148285832300693</v>
+      </c>
+      <c r="G49">
+        <v>1.460148612677334</v>
+      </c>
+      <c r="H49">
+        <v>1.617543442696555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07695400962807622</v>
+        <v>0.9906991026738055</v>
       </c>
       <c r="C50">
-        <v>-0.201036585022594</v>
+        <v>-1.561243163993181</v>
       </c>
       <c r="D50">
-        <v>0.3819039722581568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.8161128241587083</v>
+      </c>
+      <c r="E50">
+        <v>0.5648565427516806</v>
+      </c>
+      <c r="F50">
+        <v>0.876719323128321</v>
+      </c>
+      <c r="G50">
+        <v>1.034114153147542</v>
+      </c>
+      <c r="H50">
+        <v>0.178009347393838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.5068991247689255</v>
+        <v>-1.919030947736353</v>
       </c>
       <c r="C51">
-        <v>0.07604143251182532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.4583250404155367</v>
+      </c>
+      <c r="D51">
+        <v>0.207068759008509</v>
+      </c>
+      <c r="E51">
+        <v>0.5189315393851494</v>
+      </c>
+      <c r="F51">
+        <v>0.6763263694043706</v>
+      </c>
+      <c r="G51">
+        <v>-0.1797784363493336</v>
+      </c>
+      <c r="H51">
+        <v>-0.4793474259625811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
+        <v>0.6219943134566156</v>
+      </c>
+      <c r="C52">
+        <v>0.3707380320495879</v>
+      </c>
+      <c r="D52">
+        <v>0.6826008124262283</v>
+      </c>
+      <c r="E52">
+        <v>0.8399956424454496</v>
+      </c>
+      <c r="F52">
+        <v>-0.01610916330825474</v>
+      </c>
+      <c r="G52">
+        <v>-0.3156781529215021</v>
+      </c>
+      <c r="H52">
+        <v>0.6458247441653683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>-0.03022670025188753</v>
+      </c>
+      <c r="C53">
+        <v>0.2816360801247529</v>
+      </c>
+      <c r="D53">
+        <v>0.4390309101439741</v>
+      </c>
+      <c r="E53">
+        <v>-0.4170738956097301</v>
+      </c>
+      <c r="F53">
+        <v>-0.7166428852229776</v>
+      </c>
+      <c r="G53">
+        <v>0.2448600118638929</v>
+      </c>
+      <c r="H53">
+        <v>1.325014364751705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1707621958170741</v>
+      </c>
+      <c r="C54">
+        <v>0.3281570258362953</v>
+      </c>
+      <c r="D54">
+        <v>-0.5279477799174089</v>
+      </c>
+      <c r="E54">
+        <v>-0.8275167695306563</v>
+      </c>
+      <c r="F54">
+        <v>0.1339861275562141</v>
+      </c>
+      <c r="G54">
+        <v>1.214140480444026</v>
+      </c>
+      <c r="H54">
+        <v>-0.2869972410945262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.2150203222602681</v>
+      </c>
+      <c r="C55">
+        <v>-0.6410844834934362</v>
+      </c>
+      <c r="D55">
+        <v>-0.9406534731066836</v>
+      </c>
+      <c r="E55">
+        <v>0.02084942398018691</v>
+      </c>
+      <c r="F55">
+        <v>1.101003776867999</v>
+      </c>
+      <c r="G55">
+        <v>-0.4001339446705534</v>
+      </c>
+      <c r="H55">
+        <v>-1.16476296495968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>-0.2169236609483361</v>
+      </c>
+      <c r="C56">
+        <v>-0.5164926505615836</v>
+      </c>
+      <c r="D56">
+        <v>0.4450102465252869</v>
+      </c>
+      <c r="E56">
+        <v>1.525164599413098</v>
+      </c>
+      <c r="F56">
+        <v>0.0240268778745466</v>
+      </c>
+      <c r="G56">
+        <v>-0.7406021424145799</v>
+      </c>
+      <c r="H56">
+        <v>0.0496155459590802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>-0.4140300827153302</v>
+      </c>
+      <c r="C57">
+        <v>0.5474728143715402</v>
+      </c>
+      <c r="D57">
+        <v>1.627627167259352</v>
+      </c>
+      <c r="E57">
+        <v>0.1264894457207999</v>
+      </c>
+      <c r="F57">
+        <v>-0.6381395745683265</v>
+      </c>
+      <c r="G57">
+        <v>0.1520781138053335</v>
+      </c>
+      <c r="H57">
+        <v>0.4285985511862999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.5430319948685605</v>
+      </c>
+      <c r="C58">
+        <v>1.623186347756372</v>
+      </c>
+      <c r="D58">
+        <v>0.1220486262178202</v>
+      </c>
+      <c r="E58">
+        <v>-0.6425803940713062</v>
+      </c>
+      <c r="F58">
+        <v>0.1476372943023538</v>
+      </c>
+      <c r="G58">
+        <v>0.4241577316833202</v>
+      </c>
+      <c r="H58">
+        <v>-0.3217767054527739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>1.323109324869033</v>
+      </c>
+      <c r="C59">
+        <v>-0.1780283966695192</v>
+      </c>
+      <c r="D59">
+        <v>-0.9426574169586457</v>
+      </c>
+      <c r="E59">
+        <v>-0.1524397285849856</v>
+      </c>
+      <c r="F59">
+        <v>0.1240807087959808</v>
+      </c>
+      <c r="G59">
+        <v>-0.6218537283401133</v>
+      </c>
+      <c r="H59">
+        <v>0.2909120502459097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>-0.3729000113632936</v>
+      </c>
+      <c r="C60">
+        <v>-1.13752903165242</v>
+      </c>
+      <c r="D60">
+        <v>-0.34731134327876</v>
+      </c>
+      <c r="E60">
+        <v>-0.0707909058977936</v>
+      </c>
+      <c r="F60">
+        <v>-0.8167253430338877</v>
+      </c>
+      <c r="G60">
+        <v>0.09604043555213529</v>
+      </c>
+      <c r="H60">
+        <v>-0.1909932720051419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>-0.9728434977106136</v>
+      </c>
+      <c r="C61">
+        <v>-0.1826258093369535</v>
+      </c>
+      <c r="D61">
+        <v>0.09389462804401283</v>
+      </c>
+      <c r="E61">
+        <v>-0.6520398090920813</v>
+      </c>
+      <c r="F61">
+        <v>0.2607259694939417</v>
+      </c>
+      <c r="G61">
+        <v>-0.02630773806333541</v>
+      </c>
+      <c r="H61">
+        <v>-0.2184177248250425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.09916688268359179</v>
+      </c>
+      <c r="C62">
+        <v>0.3756873200645582</v>
+      </c>
+      <c r="D62">
+        <v>-0.3702471170715359</v>
+      </c>
+      <c r="E62">
+        <v>0.542518661514487</v>
+      </c>
+      <c r="F62">
+        <v>0.2554849539572099</v>
+      </c>
+      <c r="G62">
+        <v>0.0633749671955029</v>
+      </c>
+      <c r="H62">
+        <v>-0.3799736362391987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.3712316398957081</v>
+      </c>
+      <c r="C63">
+        <v>-0.374702797240386</v>
+      </c>
+      <c r="D63">
+        <v>0.538062981345637</v>
+      </c>
+      <c r="E63">
+        <v>0.2510292737883598</v>
+      </c>
+      <c r="F63">
+        <v>0.05891928702665281</v>
+      </c>
+      <c r="G63">
+        <v>-0.3844293164080488</v>
+      </c>
+      <c r="H63">
+        <v>-0.5715378344191684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>-0.1507210661031703</v>
+      </c>
+      <c r="C64">
+        <v>0.7620447124828527</v>
+      </c>
+      <c r="D64">
+        <v>0.4750110049255755</v>
+      </c>
+      <c r="E64">
+        <v>0.2829010181638685</v>
+      </c>
+      <c r="F64">
+        <v>-0.1604475852708331</v>
+      </c>
+      <c r="G64">
+        <v>-0.3475561032819527</v>
+      </c>
+      <c r="H64">
+        <v>0.06061615208936799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.798492270143955</v>
+      </c>
+      <c r="C65">
+        <v>0.5114585625866778</v>
+      </c>
+      <c r="D65">
+        <v>0.3193485758249707</v>
+      </c>
+      <c r="E65">
+        <v>-0.1240000276097308</v>
+      </c>
+      <c r="F65">
+        <v>-0.3111085456208504</v>
+      </c>
+      <c r="G65">
+        <v>0.09706370975047024</v>
+      </c>
+      <c r="H65">
+        <v>-0.6436468200362582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.1354828770139799</v>
+      </c>
+      <c r="C66">
+        <v>-0.05662710974772711</v>
+      </c>
+      <c r="D66">
+        <v>-0.4999757131824287</v>
+      </c>
+      <c r="E66">
+        <v>-0.6870842311935483</v>
+      </c>
+      <c r="F66">
+        <v>-0.2789119758222276</v>
+      </c>
+      <c r="G66">
+        <v>-1.019622505608956</v>
+      </c>
+      <c r="H66">
+        <v>-1.613015556228596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>-0.3888106862047615</v>
+      </c>
+      <c r="C67">
+        <v>-0.8321592896394631</v>
+      </c>
+      <c r="D67">
+        <v>-1.019267807650583</v>
+      </c>
+      <c r="E67">
+        <v>-0.611095552279262</v>
+      </c>
+      <c r="F67">
+        <v>-1.35180608206599</v>
+      </c>
+      <c r="G67">
+        <v>-1.94519913268563</v>
+      </c>
+      <c r="H67">
+        <v>-0.9886379383766536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.4446576596837633</v>
+      </c>
+      <c r="C68">
+        <v>0.2575491416726436</v>
+      </c>
+      <c r="D68">
+        <v>0.6657213970439644</v>
+      </c>
+      <c r="E68">
+        <v>-0.07498913274276409</v>
+      </c>
+      <c r="F68">
+        <v>-0.668382183362404</v>
+      </c>
+      <c r="G68">
+        <v>0.2881790109465727</v>
+      </c>
+      <c r="H68">
+        <v>-0.4223028360122549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>-0.7768558224351657</v>
+      </c>
+      <c r="C69">
+        <v>-0.368683567063845</v>
+      </c>
+      <c r="D69">
+        <v>-1.109394096850573</v>
+      </c>
+      <c r="E69">
+        <v>-1.702787147470213</v>
+      </c>
+      <c r="F69">
+        <v>-0.7462259531612366</v>
+      </c>
+      <c r="G69">
+        <v>-1.456707800120064</v>
+      </c>
+      <c r="H69">
+        <v>-0.1247375154017035</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.2420708771028355</v>
+      </c>
+      <c r="C70">
+        <v>-0.4986396526838929</v>
+      </c>
+      <c r="D70">
+        <v>-1.092032703303533</v>
+      </c>
+      <c r="E70">
+        <v>-0.1354715089945561</v>
+      </c>
+      <c r="F70">
+        <v>-0.8459533559533837</v>
+      </c>
+      <c r="G70">
+        <v>0.486016928764977</v>
+      </c>
+      <c r="H70">
+        <v>-0.03964728418869501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>-1.109469734297766</v>
+      </c>
+      <c r="C71">
+        <v>-1.702862784917406</v>
+      </c>
+      <c r="D71">
+        <v>-0.7463015906084292</v>
+      </c>
+      <c r="E71">
+        <v>-1.456783437567257</v>
+      </c>
+      <c r="F71">
+        <v>-0.124813152848896</v>
+      </c>
+      <c r="G71">
+        <v>-0.6504773658025681</v>
+      </c>
+      <c r="H71">
+        <v>-0.501655972788572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>-1.347138864793006</v>
+      </c>
+      <c r="C72">
+        <v>-0.3905776704840296</v>
+      </c>
+      <c r="D72">
+        <v>-1.101059517442857</v>
+      </c>
+      <c r="E72">
+        <v>0.2309107672755035</v>
+      </c>
+      <c r="F72">
+        <v>-0.2947534456781685</v>
+      </c>
+      <c r="G72">
+        <v>-0.1459320526641724</v>
+      </c>
+      <c r="H72">
+        <v>-0.3755550814420592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.1451464635215061</v>
+      </c>
+      <c r="C73">
+        <v>-0.5653353834373216</v>
+      </c>
+      <c r="D73">
+        <v>0.7666349012810392</v>
+      </c>
+      <c r="E73">
+        <v>0.2409706883273671</v>
+      </c>
+      <c r="F73">
+        <v>0.3897920813413632</v>
+      </c>
+      <c r="G73">
+        <v>0.1601690525634765</v>
+      </c>
+      <c r="H73">
+        <v>0.3192953539897606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>-0.8317590078054273</v>
+      </c>
+      <c r="C74">
+        <v>0.5002112769129334</v>
+      </c>
+      <c r="D74">
+        <v>-0.02545293604073862</v>
+      </c>
+      <c r="E74">
+        <v>0.1233684569732575</v>
+      </c>
+      <c r="F74">
+        <v>-0.1062545718046293</v>
+      </c>
+      <c r="G74">
+        <v>0.05287172962165487</v>
+      </c>
+      <c r="H74">
+        <v>0.9947940528868551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.7383909390869547</v>
+      </c>
+      <c r="C75">
+        <v>0.2127267261332827</v>
+      </c>
+      <c r="D75">
+        <v>0.3615481191472788</v>
+      </c>
+      <c r="E75">
+        <v>0.131925090369392</v>
+      </c>
+      <c r="F75">
+        <v>0.2910513917956762</v>
+      </c>
+      <c r="G75">
+        <v>1.232973715060876</v>
+      </c>
+      <c r="H75">
+        <v>1.420474783396208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>-0.1494251225766009</v>
+      </c>
+      <c r="C76">
+        <v>-0.0006037295626047934</v>
+      </c>
+      <c r="D76">
+        <v>-0.2302267583404916</v>
+      </c>
+      <c r="E76">
+        <v>-0.07110045691420741</v>
+      </c>
+      <c r="F76">
+        <v>0.8708218663509928</v>
+      </c>
+      <c r="G76">
+        <v>1.058322934686324</v>
+      </c>
+      <c r="H76">
+        <v>2.063541244851289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>-0.2519982713213852</v>
+      </c>
+      <c r="C77">
+        <v>-0.481621300099272</v>
+      </c>
+      <c r="D77">
+        <v>-0.3224949986729878</v>
+      </c>
+      <c r="E77">
+        <v>0.6194273245922124</v>
+      </c>
+      <c r="F77">
+        <v>0.8069283929275439</v>
+      </c>
+      <c r="G77">
+        <v>1.812146703092509</v>
+      </c>
+      <c r="H77">
+        <v>4.946608471130702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>-0.05742807311811904</v>
+      </c>
+      <c r="C78">
+        <v>0.1016982283081651</v>
+      </c>
+      <c r="D78">
+        <v>1.043620551573365</v>
+      </c>
+      <c r="E78">
+        <v>1.231121619908697</v>
+      </c>
+      <c r="F78">
+        <v>2.236339930073662</v>
+      </c>
+      <c r="G78">
+        <v>5.370801698111855</v>
+      </c>
+      <c r="H78">
+        <v>0.4369976207108885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>-0.3157232197705873</v>
+      </c>
+      <c r="C79">
+        <v>0.6261991034946128</v>
+      </c>
+      <c r="D79">
+        <v>0.8137001718299444</v>
+      </c>
+      <c r="E79">
+        <v>1.818918481994909</v>
+      </c>
+      <c r="F79">
+        <v>4.953380250033103</v>
+      </c>
+      <c r="G79">
+        <v>0.01957617263213612</v>
+      </c>
+      <c r="H79">
+        <v>-0.3544811911030291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>1.888188709466754</v>
+      </c>
+      <c r="C80">
+        <v>2.075689777802086</v>
+      </c>
+      <c r="D80">
+        <v>3.080908087967051</v>
+      </c>
+      <c r="E80">
+        <v>6.215369856005244</v>
+      </c>
+      <c r="F80">
+        <v>1.281565778604278</v>
+      </c>
+      <c r="G80">
+        <v>0.9075084148691125</v>
+      </c>
+      <c r="H80">
+        <v>0.7600669930119678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.05188165020572238</v>
+      </c>
+      <c r="C81">
+        <v>1.057099960370687</v>
+      </c>
+      <c r="D81">
+        <v>4.19156172840888</v>
+      </c>
+      <c r="E81">
+        <v>-0.742242348992086</v>
+      </c>
+      <c r="F81">
+        <v>-1.116299712727251</v>
+      </c>
+      <c r="G81">
+        <v>-1.263741134584396</v>
+      </c>
+      <c r="H81">
+        <v>-1.223246154736501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>1.02845113955915</v>
+      </c>
+      <c r="C82">
+        <v>4.162912907597343</v>
+      </c>
+      <c r="D82">
+        <v>-0.770891169803623</v>
+      </c>
+      <c r="E82">
+        <v>-1.144948533538788</v>
+      </c>
+      <c r="F82">
+        <v>-1.292389955395933</v>
+      </c>
+      <c r="G82">
+        <v>-1.251894975548039</v>
+      </c>
+      <c r="H82">
+        <v>-2.691098069807345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>2.579384081137725</v>
+      </c>
+      <c r="C83">
+        <v>-2.354419996263241</v>
+      </c>
+      <c r="D83">
+        <v>-2.728477359998406</v>
+      </c>
+      <c r="E83">
+        <v>-2.875918781855551</v>
+      </c>
+      <c r="F83">
+        <v>-2.835423802007657</v>
+      </c>
+      <c r="G83">
+        <v>-4.274626896266962</v>
+      </c>
+      <c r="H83">
+        <v>-3.072932146363129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>-4.047240884204956</v>
+      </c>
+      <c r="C84">
+        <v>-4.421298247940121</v>
+      </c>
+      <c r="D84">
+        <v>-4.568739669797266</v>
+      </c>
+      <c r="E84">
+        <v>-4.528244689949371</v>
+      </c>
+      <c r="F84">
+        <v>-5.967447784208678</v>
+      </c>
+      <c r="G84">
+        <v>-4.765753034304844</v>
+      </c>
+      <c r="H84">
+        <v>-4.456463277913725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>-0.3030148283341651</v>
+      </c>
+      <c r="C85">
+        <v>-0.4504562501913098</v>
+      </c>
+      <c r="D85">
+        <v>-0.4099612703434155</v>
+      </c>
+      <c r="E85">
+        <v>-1.849164364602722</v>
+      </c>
+      <c r="F85">
+        <v>-0.6474696146988876</v>
+      </c>
+      <c r="G85">
+        <v>-0.3381798583077693</v>
+      </c>
+      <c r="H85">
+        <v>-1.493232704200468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>-0.03993857462826644</v>
+      </c>
+      <c r="C86">
+        <v>0.0005564052196278535</v>
+      </c>
+      <c r="D86">
+        <v>-1.438646689039678</v>
+      </c>
+      <c r="E86">
+        <v>-0.2369519391358443</v>
+      </c>
+      <c r="F86">
+        <v>0.07233781725527411</v>
+      </c>
+      <c r="G86">
+        <v>-1.082715028637424</v>
+      </c>
+      <c r="H86">
+        <v>0.4569188152521659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>-0.7179742640366117</v>
+      </c>
+      <c r="C87">
+        <v>-2.157177358295918</v>
+      </c>
+      <c r="D87">
+        <v>-0.9554826083920839</v>
+      </c>
+      <c r="E87">
+        <v>-0.6461928520009654</v>
+      </c>
+      <c r="F87">
+        <v>-1.801245697893664</v>
+      </c>
+      <c r="G87">
+        <v>-0.2616118540040737</v>
+      </c>
+      <c r="H87">
+        <v>-0.5312659739777074</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>-2.005334216675192</v>
+      </c>
+      <c r="C88">
+        <v>-0.803639466771358</v>
+      </c>
+      <c r="D88">
+        <v>-0.4943497103802396</v>
+      </c>
+      <c r="E88">
+        <v>-1.649402556272938</v>
+      </c>
+      <c r="F88">
+        <v>-0.1097687123833477</v>
+      </c>
+      <c r="G88">
+        <v>-0.3794228323569815</v>
+      </c>
+      <c r="H88">
+        <v>0.1721088715421318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>1.21710077500531</v>
+      </c>
+      <c r="C89">
+        <v>1.526390531396428</v>
+      </c>
+      <c r="D89">
+        <v>0.37133768550373</v>
+      </c>
+      <c r="E89">
+        <v>1.91097152939332</v>
+      </c>
+      <c r="F89">
+        <v>1.641317409419687</v>
+      </c>
+      <c r="G89">
+        <v>2.1928491133188</v>
+      </c>
+      <c r="H89">
+        <v>1.966922352405947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.04231489763667018</v>
+      </c>
+      <c r="C90">
+        <v>-1.112737948256028</v>
+      </c>
+      <c r="D90">
+        <v>0.426895895633562</v>
+      </c>
+      <c r="E90">
+        <v>0.1572417756599283</v>
+      </c>
+      <c r="F90">
+        <v>0.7087734795590415</v>
+      </c>
+      <c r="G90">
+        <v>0.482846718646189</v>
+      </c>
+      <c r="H90">
+        <v>0.5906624340427387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>-1.445957031217558</v>
+      </c>
+      <c r="C91">
+        <v>0.09367681267203237</v>
+      </c>
+      <c r="D91">
+        <v>-0.1759773073016014</v>
+      </c>
+      <c r="E91">
+        <v>0.3755543965975118</v>
+      </c>
+      <c r="F91">
+        <v>0.1496276356846594</v>
+      </c>
+      <c r="G91">
+        <v>0.257443351081209</v>
+      </c>
+      <c r="H91">
+        <v>0.1610437304169073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>1.228061995268202</v>
+      </c>
+      <c r="C92">
+        <v>0.9584078752945684</v>
+      </c>
+      <c r="D92">
+        <v>1.509939579193682</v>
+      </c>
+      <c r="E92">
+        <v>1.284012818280829</v>
+      </c>
+      <c r="F92">
+        <v>1.391828533677379</v>
+      </c>
+      <c r="G92">
+        <v>1.295428913013077</v>
+      </c>
+      <c r="H92">
+        <v>1.798839798466086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>-0.4215520851831985</v>
+      </c>
+      <c r="C93">
+        <v>0.1299796187159147</v>
+      </c>
+      <c r="D93">
+        <v>-0.09594714219693778</v>
+      </c>
+      <c r="E93">
+        <v>0.01186857319961181</v>
+      </c>
+      <c r="F93">
+        <v>-0.0845310474646899</v>
+      </c>
+      <c r="G93">
+        <v>0.4188798379883186</v>
+      </c>
+      <c r="H93">
+        <v>0.6774017799117678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.5137754236260815</v>
+      </c>
+      <c r="C94">
+        <v>0.2878486627132291</v>
+      </c>
+      <c r="D94">
+        <v>0.3956643781097787</v>
+      </c>
+      <c r="E94">
+        <v>0.299264757445477</v>
+      </c>
+      <c r="F94">
+        <v>0.8026756428984855</v>
+      </c>
+      <c r="G94">
+        <v>1.061197584821935</v>
+      </c>
+      <c r="H94">
+        <v>-0.6627850001563792</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>-0.3970372280610794</v>
+      </c>
+      <c r="C95">
+        <v>-0.2892215126645298</v>
+      </c>
+      <c r="D95">
+        <v>-0.3856211333288315</v>
+      </c>
+      <c r="E95">
+        <v>0.117789752124177</v>
+      </c>
+      <c r="F95">
+        <v>0.3763116940476261</v>
+      </c>
+      <c r="G95">
+        <v>-1.347670890930688</v>
+      </c>
+      <c r="H95">
+        <v>-0.6940316745679864</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.4028038717171413</v>
+      </c>
+      <c r="C96">
+        <v>0.3064042510528396</v>
+      </c>
+      <c r="D96">
+        <v>0.8098151365058481</v>
+      </c>
+      <c r="E96">
+        <v>1.068337078429297</v>
+      </c>
+      <c r="F96">
+        <v>-0.6556455065490165</v>
+      </c>
+      <c r="G96">
+        <v>-0.002006290186315263</v>
+      </c>
+      <c r="H96">
+        <v>0.3615376447221159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.06695590705021082</v>
+      </c>
+      <c r="C97">
+        <v>0.5703667925032193</v>
+      </c>
+      <c r="D97">
+        <v>0.8288887344266684</v>
+      </c>
+      <c r="E97">
+        <v>-0.8950938505516454</v>
+      </c>
+      <c r="F97">
+        <v>-0.2414546341889441</v>
+      </c>
+      <c r="G97">
+        <v>0.1220893007194871</v>
+      </c>
+      <c r="H97">
+        <v>-0.7786865441601424</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.5336388157440486</v>
+      </c>
+      <c r="C98">
+        <v>0.7921607576674977</v>
+      </c>
+      <c r="D98">
+        <v>-0.9318218273108161</v>
+      </c>
+      <c r="E98">
+        <v>-0.2781826109481148</v>
+      </c>
+      <c r="F98">
+        <v>0.0853613239603164</v>
+      </c>
+      <c r="G98">
+        <v>-0.8154145209193131</v>
+      </c>
+      <c r="H98">
+        <v>0.2549610360343397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>-0.03433331671981776</v>
+      </c>
+      <c r="C99">
+        <v>-1.758315901698132</v>
+      </c>
+      <c r="D99">
+        <v>-1.10467668533543</v>
+      </c>
+      <c r="E99">
+        <v>-0.7411327504269991</v>
+      </c>
+      <c r="F99">
+        <v>-1.641908595306629</v>
+      </c>
+      <c r="G99">
+        <v>-0.5715330383529758</v>
+      </c>
+      <c r="H99">
+        <v>-1.148592952369438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>-1.102517691576566</v>
+      </c>
+      <c r="C100">
+        <v>-0.4488784752138651</v>
+      </c>
+      <c r="D100">
+        <v>-0.08533454030543387</v>
+      </c>
+      <c r="E100">
+        <v>-0.9861103851850633</v>
+      </c>
+      <c r="F100">
+        <v>0.08426517176858947</v>
+      </c>
+      <c r="G100">
+        <v>-0.4927947422478724</v>
+      </c>
+      <c r="H100">
+        <v>-0.6984007263408886</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.2092717645117558</v>
+      </c>
+      <c r="C101">
+        <v>0.572815699420187</v>
+      </c>
+      <c r="D101">
+        <v>-0.3279601454594425</v>
+      </c>
+      <c r="E101">
+        <v>0.7424154114942103</v>
+      </c>
+      <c r="F101">
+        <v>0.1653554974777485</v>
+      </c>
+      <c r="G101">
+        <v>-0.04025048661526776</v>
+      </c>
+      <c r="H101">
+        <v>0.9388944951058295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.1737007515684039</v>
+      </c>
+      <c r="C102">
+        <v>-0.7270750933112256</v>
+      </c>
+      <c r="D102">
+        <v>0.3433004636424272</v>
+      </c>
+      <c r="E102">
+        <v>-0.2337594503740346</v>
+      </c>
+      <c r="F102">
+        <v>-0.4393654344670508</v>
+      </c>
+      <c r="G102">
+        <v>0.5397795472540464</v>
+      </c>
+      <c r="H102">
+        <v>-0.1965667960833156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>-0.6656385511896482</v>
+      </c>
+      <c r="C103">
+        <v>0.4047370057640046</v>
+      </c>
+      <c r="D103">
+        <v>-0.1723229082524572</v>
+      </c>
+      <c r="E103">
+        <v>-0.3779288923454734</v>
+      </c>
+      <c r="F103">
+        <v>0.6012160893756238</v>
+      </c>
+      <c r="G103">
+        <v>-0.1351302539617382</v>
+      </c>
+      <c r="H103">
+        <v>-0.1531000686159315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.8389029408811082</v>
+      </c>
+      <c r="C104">
+        <v>0.2618430268646463</v>
+      </c>
+      <c r="D104">
+        <v>0.05623704277163011</v>
+      </c>
+      <c r="E104">
+        <v>1.035382024492727</v>
+      </c>
+      <c r="F104">
+        <v>0.2990356811553654</v>
+      </c>
+      <c r="G104">
+        <v>0.281065866501172</v>
+      </c>
+      <c r="H104">
+        <v>0.3044707320415089</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>-0.7169583652144306</v>
+      </c>
+      <c r="C105">
+        <v>-0.9225643493074468</v>
+      </c>
+      <c r="D105">
+        <v>0.05658063241365041</v>
+      </c>
+      <c r="E105">
+        <v>-0.6797657109237115</v>
+      </c>
+      <c r="F105">
+        <v>-0.6977355255779049</v>
+      </c>
+      <c r="G105">
+        <v>-0.674330660037568</v>
+      </c>
+      <c r="H105">
+        <v>-1.039505095804309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>-0.6954484448595206</v>
+      </c>
+      <c r="C106">
+        <v>0.2836965368615766</v>
+      </c>
+      <c r="D106">
+        <v>-0.4526498064757853</v>
+      </c>
+      <c r="E106">
+        <v>-0.4706196211299787</v>
+      </c>
+      <c r="F106">
+        <v>-0.4472147555896419</v>
+      </c>
+      <c r="G106">
+        <v>-0.8123891913563827</v>
+      </c>
+      <c r="H106">
+        <v>-0.1565696741854305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.9171562662876651</v>
+      </c>
+      <c r="C107">
+        <v>0.1808099229503032</v>
+      </c>
+      <c r="D107">
+        <v>0.1628401082961098</v>
+      </c>
+      <c r="E107">
+        <v>0.1862449738364467</v>
+      </c>
+      <c r="F107">
+        <v>-0.1789294619302941</v>
+      </c>
+      <c r="G107">
+        <v>0.476890055240658</v>
+      </c>
+      <c r="H107">
+        <v>0.3460191742992343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>-0.2465870357053012</v>
+      </c>
+      <c r="C108">
+        <v>-0.2645568503594945</v>
+      </c>
+      <c r="D108">
+        <v>-0.2411519848191577</v>
+      </c>
+      <c r="E108">
+        <v>-0.6063264205858985</v>
+      </c>
+      <c r="F108">
+        <v>0.04949309658505369</v>
+      </c>
+      <c r="G108">
+        <v>-0.08137778435637</v>
+      </c>
+      <c r="H108">
+        <v>-0.1908955832804919</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>-0.09821989567134759</v>
+      </c>
+      <c r="C109">
+        <v>-0.07481503013101076</v>
+      </c>
+      <c r="D109">
+        <v>-0.4399894658977516</v>
+      </c>
+      <c r="E109">
+        <v>0.2158300512732006</v>
+      </c>
+      <c r="F109">
+        <v>0.08495917033177691</v>
+      </c>
+      <c r="G109">
+        <v>-0.02455862859234498</v>
+      </c>
+      <c r="H109">
+        <v>-0.8543364156598983</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>-0.1975260465718366</v>
+      </c>
+      <c r="C110">
+        <v>-0.5627004823385774</v>
+      </c>
+      <c r="D110">
+        <v>0.09311903483237477</v>
+      </c>
+      <c r="E110">
+        <v>-0.03775184610904891</v>
+      </c>
+      <c r="F110">
+        <v>-0.1472696450331708</v>
+      </c>
+      <c r="G110">
+        <v>-0.9770474321007241</v>
+      </c>
+      <c r="H110">
+        <v>-0.3965216429320764</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>-0.6099342188937177</v>
+      </c>
+      <c r="C111">
+        <v>0.04588529827723448</v>
+      </c>
+      <c r="D111">
+        <v>-0.08498558266418921</v>
+      </c>
+      <c r="E111">
+        <v>-0.1945033815883111</v>
+      </c>
+      <c r="F111">
+        <v>-1.024281168655864</v>
+      </c>
+      <c r="G111">
+        <v>-0.4437553794872167</v>
+      </c>
+      <c r="H111">
+        <v>-0.5271414809169966</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.4425040297996861</v>
+      </c>
+      <c r="C112">
+        <v>0.3116331488582624</v>
+      </c>
+      <c r="D112">
+        <v>0.2021153499341405</v>
+      </c>
+      <c r="E112">
+        <v>-0.6276624371334127</v>
+      </c>
+      <c r="F112">
+        <v>-0.04713664796476502</v>
+      </c>
+      <c r="G112">
+        <v>-0.130522749394545</v>
+      </c>
+      <c r="H112">
+        <v>-0.3484326269343037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>0.05758111373454233</v>
+      </c>
+      <c r="C113">
+        <v>-0.05193668518957956</v>
+      </c>
+      <c r="D113">
+        <v>-0.8817144722571328</v>
+      </c>
+      <c r="E113">
+        <v>-0.3011886830884851</v>
+      </c>
+      <c r="F113">
+        <v>-0.3845747845182651</v>
+      </c>
+      <c r="G113">
+        <v>-0.6024846620580238</v>
+      </c>
+      <c r="H113">
+        <v>0.9612931415781466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>-0.2720610750631522</v>
+      </c>
+      <c r="C114">
+        <v>-1.101838862130705</v>
+      </c>
+      <c r="D114">
+        <v>-0.5213130729620578</v>
+      </c>
+      <c r="E114">
+        <v>-0.6046991743918377</v>
+      </c>
+      <c r="F114">
+        <v>-0.8226090519315964</v>
+      </c>
+      <c r="G114">
+        <v>0.741168751704574</v>
+      </c>
+      <c r="H114">
+        <v>-0.5948149543774897</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>-0.8660504135440372</v>
+      </c>
+      <c r="C115">
+        <v>-0.2855246243753896</v>
+      </c>
+      <c r="D115">
+        <v>-0.3689107258051695</v>
+      </c>
+      <c r="E115">
+        <v>-0.5868206033449281</v>
+      </c>
+      <c r="F115">
+        <v>0.9769572002912421</v>
+      </c>
+      <c r="G115">
+        <v>-0.3590265057908215</v>
+      </c>
+      <c r="H115">
+        <v>1.081587910739307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>-0.1065518669046048</v>
+      </c>
+      <c r="C116">
+        <v>-0.1899379683343848</v>
+      </c>
+      <c r="D116">
+        <v>-0.4078478458741435</v>
+      </c>
+      <c r="E116">
+        <v>1.155929957762027</v>
+      </c>
+      <c r="F116">
+        <v>-0.1800537483200367</v>
+      </c>
+      <c r="G116">
+        <v>1.260560668210092</v>
+      </c>
+      <c r="H116">
+        <v>0.1601165539492688</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>-0.1793774380750638</v>
+      </c>
+      <c r="C117">
+        <v>-0.3972873156148224</v>
+      </c>
+      <c r="D117">
+        <v>1.166490488021348</v>
+      </c>
+      <c r="E117">
+        <v>-0.1694932180607157</v>
+      </c>
+      <c r="F117">
+        <v>1.271121198469412</v>
+      </c>
+      <c r="G117">
+        <v>0.1706770842085898</v>
+      </c>
+      <c r="H117">
+        <v>-0.03959731396108002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>-0.1895682054566924</v>
+      </c>
+      <c r="C118">
+        <v>1.374209598179478</v>
+      </c>
+      <c r="D118">
+        <v>0.03822589209741434</v>
+      </c>
+      <c r="E118">
+        <v>1.478840308627543</v>
+      </c>
+      <c r="F118">
+        <v>0.3783961943667199</v>
+      </c>
+      <c r="G118">
+        <v>0.16812179619705</v>
+      </c>
+      <c r="H118">
+        <v>0.7666659995807804</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>1.157000698704573</v>
+      </c>
+      <c r="C119">
+        <v>-0.1789830073774904</v>
+      </c>
+      <c r="D119">
+        <v>1.261631409152638</v>
+      </c>
+      <c r="E119">
+        <v>0.1611872948918152</v>
+      </c>
+      <c r="F119">
+        <v>-0.0490871032778547</v>
+      </c>
+      <c r="G119">
+        <v>0.5494571001058757</v>
+      </c>
+      <c r="H119">
+        <v>0.2237884593306613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>-0.4886691766355519</v>
+      </c>
+      <c r="C120">
+        <v>0.9519452398945764</v>
+      </c>
+      <c r="D120">
+        <v>-0.1484988743662463</v>
+      </c>
+      <c r="E120">
+        <v>-0.3587732725359162</v>
+      </c>
+      <c r="F120">
+        <v>0.2397709308478142</v>
+      </c>
+      <c r="G120">
+        <v>-0.0858977099274002</v>
+      </c>
+      <c r="H120">
+        <v>0.6312820914482035</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>1.10624937372658</v>
+      </c>
+      <c r="C121">
+        <v>0.005805259465757717</v>
+      </c>
+      <c r="D121">
+        <v>-0.2044691387039121</v>
+      </c>
+      <c r="E121">
+        <v>0.3940750646798182</v>
+      </c>
+      <c r="F121">
+        <v>0.06840642390460383</v>
+      </c>
+      <c r="G121">
+        <v>0.7855862252802075</v>
+      </c>
+      <c r="H121">
+        <v>2.481458500917908</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>-0.6446211617534254</v>
+      </c>
+      <c r="C122">
+        <v>-0.8548955599230954</v>
+      </c>
+      <c r="D122">
+        <v>-0.256351356539365</v>
+      </c>
+      <c r="E122">
+        <v>-0.5820199973145794</v>
+      </c>
+      <c r="F122">
+        <v>0.1351598040610243</v>
+      </c>
+      <c r="G122">
+        <v>1.831032079698725</v>
+      </c>
+      <c r="H122">
+        <v>8.675278874623302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>-0.6387305113048862</v>
+      </c>
+      <c r="C123">
+        <v>-0.04018630792115581</v>
+      </c>
+      <c r="D123">
+        <v>-0.3658549486963703</v>
+      </c>
+      <c r="E123">
+        <v>0.3513248526792334</v>
+      </c>
+      <c r="F123">
+        <v>2.047197128316934</v>
+      </c>
+      <c r="G123">
+        <v>8.891443923241512</v>
+      </c>
+      <c r="H123">
+        <v>-8.659210159859798</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>0.3668428211138005</v>
+      </c>
+      <c r="C124">
+        <v>0.04117418033858611</v>
+      </c>
+      <c r="D124">
+        <v>0.7583539817141898</v>
+      </c>
+      <c r="E124">
+        <v>2.454226257351891</v>
+      </c>
+      <c r="F124">
+        <v>9.298473052276469</v>
+      </c>
+      <c r="G124">
+        <v>-8.252181030824842</v>
+      </c>
+      <c r="H124">
+        <v>-0.5427844311686951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>-0.4578680368388337</v>
+      </c>
+      <c r="C125">
+        <v>0.25931176453677</v>
+      </c>
+      <c r="D125">
+        <v>1.955184040174471</v>
+      </c>
+      <c r="E125">
+        <v>8.799430835099049</v>
+      </c>
+      <c r="F125">
+        <v>-8.751223248002262</v>
+      </c>
+      <c r="G125">
+        <v>-1.041826648346115</v>
+      </c>
+      <c r="H125">
+        <v>0.5410860125407967</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>0.4181606776922825</v>
+      </c>
+      <c r="C126">
+        <v>2.114032953329983</v>
+      </c>
+      <c r="D126">
+        <v>8.958279748254562</v>
+      </c>
+      <c r="E126">
+        <v>-8.592374334846749</v>
+      </c>
+      <c r="F126">
+        <v>-0.8829777351906024</v>
+      </c>
+      <c r="G126">
+        <v>0.6999349256963092</v>
+      </c>
+      <c r="H126">
+        <v>-2.266352066652947</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>2.057869132359739</v>
+      </c>
+      <c r="C127">
+        <v>8.902115927284317</v>
+      </c>
+      <c r="D127">
+        <v>-8.648538155816993</v>
+      </c>
+      <c r="E127">
+        <v>-0.9391415561608464</v>
+      </c>
+      <c r="F127">
+        <v>0.6437711047260652</v>
+      </c>
+      <c r="G127">
+        <v>-2.322515887623191</v>
+      </c>
+      <c r="H127">
+        <v>-0.05848473295872768</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>6.652313087672924</v>
+      </c>
+      <c r="C128">
+        <v>-10.89834099542839</v>
+      </c>
+      <c r="D128">
+        <v>-3.188944395772239</v>
+      </c>
+      <c r="E128">
+        <v>-1.606031734885327</v>
+      </c>
+      <c r="F128">
+        <v>-4.572318727234583</v>
+      </c>
+      <c r="G128">
+        <v>-2.30828757257012</v>
+      </c>
+      <c r="H128">
+        <v>-2.759441727496859</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>-18.36749132628568</v>
+      </c>
+      <c r="C129">
+        <v>-10.65809472662953</v>
+      </c>
+      <c r="D129">
+        <v>-9.07518206574262</v>
+      </c>
+      <c r="E129">
+        <v>-12.04146905809188</v>
+      </c>
+      <c r="F129">
+        <v>-9.777437903427414</v>
+      </c>
+      <c r="G129">
+        <v>-10.22859205835415</v>
+      </c>
+      <c r="H129">
+        <v>-10.36895612186813</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>7.513167073507937</v>
+      </c>
+      <c r="C130">
+        <v>9.096079734394849</v>
+      </c>
+      <c r="D130">
+        <v>6.129792742045593</v>
+      </c>
+      <c r="E130">
+        <v>8.393823896710055</v>
+      </c>
+      <c r="F130">
+        <v>7.942669741783317</v>
+      </c>
+      <c r="G130">
+        <v>7.802305678269343</v>
+      </c>
+      <c r="H130">
+        <v>8.32854468913156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>0.9564081874156993</v>
+      </c>
+      <c r="C131">
+        <v>-2.009878804933557</v>
+      </c>
+      <c r="D131">
+        <v>0.2541523497309064</v>
+      </c>
+      <c r="E131">
+        <v>-0.1970018051958322</v>
+      </c>
+      <c r="F131">
+        <v>-0.3373658687098063</v>
+      </c>
+      <c r="G131">
+        <v>0.1888731421524112</v>
+      </c>
+      <c r="H131">
+        <v>0.0470441954131372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>-4.157449276732949</v>
+      </c>
+      <c r="C132">
+        <v>-1.893418122068486</v>
+      </c>
+      <c r="D132">
+        <v>-2.344572276995224</v>
+      </c>
+      <c r="E132">
+        <v>-2.484936340509199</v>
+      </c>
+      <c r="F132">
+        <v>-1.958697329646981</v>
+      </c>
+      <c r="G132">
+        <v>-2.100526276386255</v>
+      </c>
+      <c r="H132">
+        <v>-1.457551654984191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>1.546611864454844</v>
+      </c>
+      <c r="C133">
+        <v>1.095457709528105</v>
+      </c>
+      <c r="D133">
+        <v>0.9550936460141312</v>
+      </c>
+      <c r="E133">
+        <v>1.481332656876349</v>
+      </c>
+      <c r="F133">
+        <v>1.339503710137075</v>
+      </c>
+      <c r="G133">
+        <v>1.982478331539139</v>
+      </c>
+      <c r="H133">
+        <v>2.106891037868721</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>1.156631887942306</v>
+      </c>
+      <c r="C134">
+        <v>1.016267824428332</v>
+      </c>
+      <c r="D134">
+        <v>1.54250683529055</v>
+      </c>
+      <c r="E134">
+        <v>1.400677888551276</v>
+      </c>
+      <c r="F134">
+        <v>2.04365250995334</v>
+      </c>
+      <c r="G134">
+        <v>2.168065216282922</v>
+      </c>
+      <c r="H134">
+        <v>1.770435010245305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>-1.025188112727922</v>
+      </c>
+      <c r="C135">
+        <v>-0.4989491018657047</v>
+      </c>
+      <c r="D135">
+        <v>-0.6407780486049788</v>
+      </c>
+      <c r="E135">
+        <v>0.002196572797085183</v>
+      </c>
+      <c r="F135">
+        <v>0.1266092791266676</v>
+      </c>
+      <c r="G135">
+        <v>-0.2710209269109496</v>
+      </c>
+      <c r="H135">
+        <v>-0.3471896406117954</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>0.08364543516793629</v>
+      </c>
+      <c r="C136">
+        <v>-0.05818351157133772</v>
+      </c>
+      <c r="D136">
+        <v>0.5847911098307261</v>
+      </c>
+      <c r="E136">
+        <v>0.7092038161603086</v>
+      </c>
+      <c r="F136">
+        <v>0.3115736101226914</v>
+      </c>
+      <c r="G136">
+        <v>0.2354048964218456</v>
+      </c>
+      <c r="H136">
+        <v>0.5117269545447671</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>-0.1538585523806955</v>
+      </c>
+      <c r="C137">
+        <v>0.4891160690213684</v>
+      </c>
+      <c r="D137">
+        <v>0.6135287753509509</v>
+      </c>
+      <c r="E137">
+        <v>0.2158985693133336</v>
+      </c>
+      <c r="F137">
+        <v>0.1397298556124878</v>
+      </c>
+      <c r="G137">
+        <v>0.4160519137354094</v>
+      </c>
+      <c r="H137">
+        <v>0.2448320914236854</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>0.7495351060200912</v>
+      </c>
+      <c r="C138">
+        <v>0.8739478123496736</v>
+      </c>
+      <c r="D138">
+        <v>0.4763176063120564</v>
+      </c>
+      <c r="E138">
+        <v>0.4001488926112106</v>
+      </c>
+      <c r="F138">
+        <v>0.6764709507341322</v>
+      </c>
+      <c r="G138">
+        <v>0.5052511284224082</v>
+      </c>
+      <c r="H138">
+        <v>0.6583985339311494</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>0.03849281619118239</v>
+      </c>
+      <c r="C139">
+        <v>-0.3591373898464348</v>
+      </c>
+      <c r="D139">
+        <v>-0.4353061035472806</v>
+      </c>
+      <c r="E139">
+        <v>-0.158984045424359</v>
+      </c>
+      <c r="F139">
+        <v>-0.330203867736083</v>
+      </c>
+      <c r="G139">
+        <v>-0.1770564622273418</v>
+      </c>
+      <c r="H139">
+        <v>-0.4544852366504605</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>-0.2590580299438133</v>
+      </c>
+      <c r="C140">
+        <v>-0.3352267436446591</v>
+      </c>
+      <c r="D140">
+        <v>-0.0589046855217375</v>
+      </c>
+      <c r="E140">
+        <v>-0.2301245078334615</v>
+      </c>
+      <c r="F140">
+        <v>-0.07697710232472027</v>
+      </c>
+      <c r="G140">
+        <v>-0.354405876747839</v>
+      </c>
+      <c r="H140">
+        <v>-0.5173935701067854</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>0.01855976243503714</v>
+      </c>
+      <c r="C141">
+        <v>0.2948818205579588</v>
+      </c>
+      <c r="D141">
+        <v>0.1236619982462347</v>
+      </c>
+      <c r="E141">
+        <v>0.276809403754976</v>
+      </c>
+      <c r="F141">
+        <v>-0.0006193706681427817</v>
+      </c>
+      <c r="G141">
+        <v>-0.1636070640270892</v>
+      </c>
+      <c r="H141">
+        <v>-0.287689639421607</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>0.1467044301255134</v>
+      </c>
+      <c r="C142">
+        <v>-0.0245153921862106</v>
+      </c>
+      <c r="D142">
+        <v>0.1286320133225306</v>
+      </c>
+      <c r="E142">
+        <v>-0.1487967611005881</v>
+      </c>
+      <c r="F142">
+        <v>-0.3117844544595345</v>
+      </c>
+      <c r="G142">
+        <v>-0.4358670298540523</v>
+      </c>
+      <c r="H142">
+        <v>0.1470735274266985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>-0.1819613811903656</v>
+      </c>
+      <c r="C143">
+        <v>-0.02881397568162436</v>
+      </c>
+      <c r="D143">
+        <v>-0.3062427501047431</v>
+      </c>
+      <c r="E143">
+        <v>-0.4692304434636895</v>
+      </c>
+      <c r="F143">
+        <v>-0.5933130188582073</v>
+      </c>
+      <c r="G143">
+        <v>-0.01037246157745647</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>0.4718454808444464</v>
+      </c>
+      <c r="C144">
+        <v>0.1944167064213277</v>
+      </c>
+      <c r="D144">
+        <v>0.0314290130623813</v>
+      </c>
+      <c r="E144">
+        <v>-0.09265356233213651</v>
+      </c>
+      <c r="F144">
+        <v>0.4902869949486143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>-0.08594117411414147</v>
+      </c>
+      <c r="C145">
+        <v>-0.2489288674730878</v>
+      </c>
+      <c r="D145">
+        <v>-0.3730114428676057</v>
+      </c>
+      <c r="E145">
+        <v>0.2099291144131452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>-0.07695400962807622</v>
+      </c>
+      <c r="C146">
+        <v>-0.201036585022594</v>
+      </c>
+      <c r="D146">
+        <v>0.3819039722581568</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>-0.5068991247689255</v>
+      </c>
+      <c r="C147">
+        <v>0.07604143251182532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
         <v>0.6883713851991116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
